--- a/stock_predictor_ai/data/company_sentiment_ready/WSM_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/WSM_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10579"/>
+  <dimension ref="A1:B10633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85073,6 +85073,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10580">
+      <c r="A10580" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B10580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10581">
+      <c r="A10581" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B10581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10582">
+      <c r="A10582" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10583">
+      <c r="A10583" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B10583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10584">
+      <c r="A10584" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B10584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10585">
+      <c r="A10585" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B10585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10586">
+      <c r="A10586" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B10586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10587">
+      <c r="A10587" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B10587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10588">
+      <c r="A10588" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B10588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10589">
+      <c r="A10589" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B10589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10590">
+      <c r="A10590" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B10590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10591">
+      <c r="A10591" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B10591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10592">
+      <c r="A10592" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B10592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10593">
+      <c r="A10593" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B10593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10594">
+      <c r="A10594" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B10594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10595">
+      <c r="A10595" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B10595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10596">
+      <c r="A10596" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B10596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10597">
+      <c r="A10597" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B10597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10598">
+      <c r="A10598" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B10598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10599">
+      <c r="A10599" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B10599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10600">
+      <c r="A10600" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B10600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10601">
+      <c r="A10601" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B10601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10602">
+      <c r="A10602" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B10602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10603">
+      <c r="A10603" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B10603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10604">
+      <c r="A10604" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B10604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10605">
+      <c r="A10605" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B10605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10606">
+      <c r="A10606" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B10606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10607">
+      <c r="A10607" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B10607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10608">
+      <c r="A10608" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B10608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10609">
+      <c r="A10609" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B10609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10610">
+      <c r="A10610" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B10610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10611">
+      <c r="A10611" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B10611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10612">
+      <c r="A10612" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B10612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10613">
+      <c r="A10613" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B10613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10614">
+      <c r="A10614" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B10614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10615">
+      <c r="A10615" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B10615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10616">
+      <c r="A10616" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B10616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10617">
+      <c r="A10617" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B10617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10618">
+      <c r="A10618" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B10618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10619">
+      <c r="A10619" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B10619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10620">
+      <c r="A10620" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B10620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10621">
+      <c r="A10621" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B10621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10622">
+      <c r="A10622" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B10622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10623">
+      <c r="A10623" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B10623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10624">
+      <c r="A10624" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B10624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10625">
+      <c r="A10625" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B10625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10626">
+      <c r="A10626" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B10626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10627">
+      <c r="A10627" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B10627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10628">
+      <c r="A10628" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B10628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10629">
+      <c r="A10629" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B10629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10630">
+      <c r="A10630" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B10630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10631">
+      <c r="A10631" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B10631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10632">
+      <c r="A10632" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B10632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10633">
+      <c r="A10633" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B10633" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
